--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="51">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Multivalued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -181,7 +184,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -227,6 +230,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -289,7 +300,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -334,6 +345,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,7 +361,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -354,15 +369,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,13 +398,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -483,10 +498,13 @@
       <c r="K4" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="L4" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
@@ -494,51 +512,58 @@
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>23</v>
+      <c r="D5" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -582,10 +607,10 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
@@ -632,10 +657,13 @@
       <c r="K11" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="L11" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
@@ -643,25 +671,28 @@
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>23</v>
+      <c r="D12" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -669,20 +700,23 @@
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>23</v>
+      <c r="D13" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -690,47 +724,50 @@
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>23</v>
+      <c r="D14" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -751,22 +788,22 @@
       <c r="G17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>35</v>
+      <c r="A18" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="8" t="s">
@@ -780,179 +817,197 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="18" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="L19" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="A20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="B20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="19" t="s">
         <v>25</v>
       </c>
+      <c r="F20" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="18" t="s">
-        <v>24</v>
+      <c r="H20" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="B21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>40</v>
       </c>
+      <c r="F21" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="18" t="s">
-        <v>41</v>
+      <c r="H21" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="B22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>44</v>
       </c>
+      <c r="F22" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="18" t="s">
-        <v>43</v>
+      <c r="H22" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="18" t="s">
-        <v>46</v>
+      <c r="H23" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>23</v>
+      <c r="D24" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="13" t="s">
         <v>10</v>
       </c>
     </row>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t xml:space="preserve">Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -398,13 +404,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -501,10 +507,16 @@
       <c r="L4" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="M4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
@@ -513,16 +525,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>10</v>
@@ -533,7 +545,7 @@
     </row>
     <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>11</v>
@@ -542,16 +554,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I6" s="6"/>
       <c r="K6" s="13" t="s">
@@ -607,10 +619,10 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
@@ -660,10 +672,16 @@
       <c r="L11" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="M11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
@@ -672,16 +690,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>10</v>
@@ -692,7 +710,7 @@
     </row>
     <row r="13" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -701,16 +719,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" s="6"/>
       <c r="K13" s="13" t="s">
@@ -731,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>9</v>
@@ -794,16 +812,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="8" t="s">
@@ -853,10 +871,16 @@
       <c r="L19" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="M19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>11</v>
@@ -865,17 +889,17 @@
         <v>11</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -888,7 +912,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>11</v>
@@ -897,17 +921,17 @@
         <v>11</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -920,7 +944,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>11</v>
@@ -929,17 +953,17 @@
         <v>11</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -952,7 +976,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>11</v>
@@ -961,17 +985,17 @@
         <v>11</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -984,7 +1008,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>10</v>
@@ -993,16 +1017,16 @@
         <v>11</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>10</v>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="54">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -190,7 +193,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -241,6 +244,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -306,7 +323,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,6 +372,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -363,11 +384,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,15 +400,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,13 +429,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19:N19"/>
+      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -513,10 +538,13 @@
       <c r="N4" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="O4" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
@@ -524,58 +552,65 @@
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>26</v>
+      <c r="D5" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="13" t="s">
+      <c r="K5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="K6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -619,10 +654,10 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
@@ -678,10 +713,13 @@
       <c r="N11" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="O11" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
@@ -689,28 +727,31 @@
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -718,23 +759,26 @@
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>26</v>
+      <c r="D13" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="K13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="13" t="s">
+      <c r="K13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -742,50 +786,53 @@
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>26</v>
+      <c r="D14" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="13" t="s">
+      <c r="K14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -806,22 +853,22 @@
       <c r="G17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>38</v>
+      <c r="A18" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="8" t="s">
@@ -835,34 +882,34 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="20" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="10" t="s">
@@ -877,161 +924,179 @@
       <c r="N19" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="O19" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="A20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="B20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="F20" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="19" t="s">
-        <v>27</v>
+      <c r="H20" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="13" t="s">
+      <c r="K20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="A21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="B21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>43</v>
       </c>
+      <c r="F21" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="19" t="s">
-        <v>44</v>
+      <c r="H21" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="13" t="s">
+      <c r="K21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="19" t="s">
+      <c r="A22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="B22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>47</v>
       </c>
+      <c r="F22" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="19" t="s">
-        <v>46</v>
+      <c r="H22" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="13" t="s">
+      <c r="K22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="19" t="s">
-        <v>49</v>
+      <c r="H23" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="13" t="s">
+      <c r="K23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>26</v>
+      <c r="D24" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="13" t="s">
+      <c r="K24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="15" t="s">
         <v>10</v>
       </c>
     </row>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -432,10 +429,10 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
+      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11:O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -538,63 +535,59 @@
       <c r="N4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="I6" s="6"/>
       <c r="K6" s="14" t="s">
@@ -603,9 +596,7 @@
       <c r="L6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K7" s="14"/>
@@ -654,10 +645,10 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
@@ -713,63 +704,59 @@
       <c r="N11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="6"/>
       <c r="K13" s="14" t="s">
@@ -778,9 +765,7 @@
       <c r="L13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
@@ -793,13 +778,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>9</v>
@@ -810,14 +795,12 @@
       <c r="L14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
     </row>
-    <row r="16" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
         <v>0</v>
       </c>
@@ -859,16 +842,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="8" t="s">
@@ -924,32 +907,30 @@
       <c r="N19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -959,32 +940,30 @@
       <c r="L20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="O20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="21" t="s">
         <v>43</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>44</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -994,32 +973,30 @@
       <c r="L21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="21" t="s">
+      <c r="F22" s="21" t="s">
         <v>47</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1029,32 +1006,30 @@
       <c r="L22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="F23" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1064,31 +1039,29 @@
       <c r="L23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="O23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="H24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>10</v>
@@ -1096,9 +1069,7 @@
       <c r="L24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="O24" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="55">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -49,12 +52,12 @@
     <t xml:space="preserve">DEPARTMENT</t>
   </si>
   <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Department</t>
   </si>
   <si>
-    <t xml:space="preserve">FALSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
@@ -97,7 +100,10 @@
     <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
-    <t xml:space="preserve">$NAME</t>
+    <t xml:space="preserve">Internal Assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME</t>
   </si>
   <si>
     <t xml:space="preserve">General info</t>
@@ -237,6 +243,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -266,13 +279,6 @@
     <font>
       <b val="true"/>
       <sz val="13"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -337,6 +343,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,6 +359,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -365,11 +379,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,15 +395,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -397,15 +407,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,13 +432,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11:O24"/>
+      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -452,16 +458,16 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -470,34 +476,40 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="5"/>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -515,99 +527,115 @@
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="12"/>
+      <c r="O4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="15"/>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>29</v>
+      <c r="A6" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="K6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="15"/>
+      <c r="I6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="L6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="P7" s="17"/>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -616,21 +644,22 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -639,34 +668,40 @@
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I9" s="2"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="5"/>
+      <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -684,150 +719,172 @@
         <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="12"/>
+      <c r="O11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>33</v>
+      <c r="A12" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="L13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="K13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="15"/>
+      <c r="L14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -836,240 +893,276 @@
       <c r="G17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="3"/>
+      <c r="H17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="20" t="s">
+      <c r="H19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="I19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="12"/>
+      <c r="O19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="21" t="s">
         <v>27</v>
       </c>
+      <c r="B20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="F20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20" s="15"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="G21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="15"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="15"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23" s="15"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" s="15"/>
+      <c r="B24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
